--- a/src/common/templates/binder.xlsx
+++ b/src/common/templates/binder.xlsx
@@ -1,20 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB0A43A-D1C0-47D3-A1C0-7C20105214E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7950F5-0937-4F2B-A0C4-2ABA1E468A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="255" windowWidth="25035" windowHeight="15495" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="15600" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
   </bookViews>
   <sheets>
     <sheet name="바인더 작업일지" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="approver">'바인더 작업일지'!$L$5</definedName>
+    <definedName name="binderSolution">'바인더 작업일지'!$K$12</definedName>
+    <definedName name="binderWeightEndTime">'바인더 작업일지'!$L$21</definedName>
+    <definedName name="binderWeightInput">'바인더 작업일지'!$E$21</definedName>
+    <definedName name="binderWeightRpmHigh">'바인더 작업일지'!$J$21</definedName>
+    <definedName name="binderWeightRpmLow">'바인더 작업일지'!$I$21</definedName>
+    <definedName name="binderWeightStartTime">'바인더 작업일지'!$K$21</definedName>
+    <definedName name="binderWeightTemp">'바인더 작업일지'!$H$21</definedName>
+    <definedName name="cleanCheck">'바인더 작업일지'!$G$29</definedName>
+    <definedName name="equipmentCheckResult">'바인더 작업일지'!$C$27</definedName>
+    <definedName name="equipmentIssue">'바인더 작업일지'!$K$27</definedName>
+    <definedName name="jigNumber">'바인더 작업일지'!$G$27</definedName>
+    <definedName name="line">'바인더 작업일지'!$C$8</definedName>
+    <definedName name="lot">'바인더 작업일지'!$C$15</definedName>
+    <definedName name="manufactureDate">'바인더 작업일지'!$C$7</definedName>
+    <definedName name="material1ActualInput">'바인더 작업일지'!$I$12</definedName>
+    <definedName name="material1Composition">'바인더 작업일지'!$C$12</definedName>
+    <definedName name="material1Lot">'바인더 작업일지'!$E$12</definedName>
+    <definedName name="material1Name">'바인더 작업일지'!$A$12</definedName>
+    <definedName name="material1PlannedInput">'바인더 작업일지'!$G$12</definedName>
+    <definedName name="material2ActualInput">'바인더 작업일지'!$I$13</definedName>
+    <definedName name="material2Composition">'바인더 작업일지'!$C$13</definedName>
+    <definedName name="material2Lot">'바인더 작업일지'!$E$13</definedName>
+    <definedName name="material2Name">'바인더 작업일지'!$A$13</definedName>
+    <definedName name="material2PlannedInput">'바인더 작업일지'!$G$13</definedName>
+    <definedName name="mixing1EndTime">'바인더 작업일지'!$L$22</definedName>
+    <definedName name="mixing1Input">'바인더 작업일지'!$E$22</definedName>
+    <definedName name="mixing1RpmHigh">'바인더 작업일지'!$J$22</definedName>
+    <definedName name="mixing1RpmLow">'바인더 작업일지'!$I$22</definedName>
+    <definedName name="mixing1StartTime">'바인더 작업일지'!$K$22</definedName>
+    <definedName name="mixing1Temp">'바인더 작업일지'!$H$22</definedName>
+    <definedName name="mixing2EndTime">'바인더 작업일지'!$L$24</definedName>
+    <definedName name="mixing2Input">'바인더 작업일지'!$E$24</definedName>
+    <definedName name="mixing2RpmHigh">'바인더 작업일지'!$J$24</definedName>
+    <definedName name="mixing2RpmLow">'바인더 작업일지'!$I$24</definedName>
+    <definedName name="mixing2StartTime">'바인더 작업일지'!$K$24</definedName>
+    <definedName name="mixing2Temp">'바인더 작업일지'!$H$24</definedName>
+    <definedName name="nmpWeightEndTime">'바인더 작업일지'!$L$20</definedName>
+    <definedName name="nmpWeightInput">'바인더 작업일지'!$E$20</definedName>
+    <definedName name="nmpWeightRpmHigh">'바인더 작업일지'!$J$20</definedName>
+    <definedName name="nmpWeightRpmLow">'바인더 작업일지'!$I$20</definedName>
+    <definedName name="nmpWeightStartTime">'바인더 작업일지'!$K$20</definedName>
+    <definedName name="nmpWeightTemp">'바인더 작업일지'!$H$20</definedName>
+    <definedName name="plant">'바인더 작업일지'!$G$8</definedName>
+    <definedName name="productionId">'바인더 작업일지'!$G$7</definedName>
+    <definedName name="remark">'바인더 작업일지'!$A$31</definedName>
+    <definedName name="reviewer">'바인더 작업일지'!$K$5</definedName>
+    <definedName name="safety">'바인더 작업일지'!$K$29</definedName>
+    <definedName name="scrappingEndTime">'바인더 작업일지'!$L$23</definedName>
+    <definedName name="scrappingInput">'바인더 작업일지'!$E$23</definedName>
+    <definedName name="scrappingRpmHigh">'바인더 작업일지'!$J$23</definedName>
+    <definedName name="scrappingRpmLow">'바인더 작업일지'!$I$23</definedName>
+    <definedName name="scrappingStartTime">'바인더 작업일지'!$K$23</definedName>
+    <definedName name="scrappingTemp">'바인더 작업일지'!$H$23</definedName>
+    <definedName name="shift">'바인더 작업일지'!$K$8</definedName>
+    <definedName name="solidContent1">'바인더 작업일지'!$H$16</definedName>
+    <definedName name="solidContent2">'바인더 작업일지'!$J$16</definedName>
+    <definedName name="solidContent3">'바인더 작업일지'!$L$16</definedName>
+    <definedName name="stabilizationEndTime">'바인더 작업일지'!$L$25</definedName>
+    <definedName name="stabilizationInput">'바인더 작업일지'!$E$25</definedName>
+    <definedName name="stabilizationRpmHigh">'바인더 작업일지'!$J$25</definedName>
+    <definedName name="stabilizationRpmLow">'바인더 작업일지'!$I$25</definedName>
+    <definedName name="stabilizationStartTime">'바인더 작업일지'!$K$25</definedName>
+    <definedName name="stabilizationTemp">'바인더 작업일지'!$H$25</definedName>
+    <definedName name="tempHumi">'바인더 작업일지'!$C$29</definedName>
+    <definedName name="viscosity">'바인더 작업일지'!$C$16</definedName>
+    <definedName name="worker">'바인더 작업일지'!$K$7</definedName>
+    <definedName name="writer">'바인더 작업일지'!$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>7. 비고 / 특이사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +125,6 @@
   </si>
   <si>
     <t>6. 환경 및 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,47 +562,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,142 +578,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,7 +1074,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="G10" sqref="G10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1032,673 +1083,657 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="14" t="s">
+      <c r="A1" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="A6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="26" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="55" t="s">
+      <c r="A8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="55" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="18" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="16"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="33"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="26" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="48" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="26" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="48" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="48"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="46"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="43"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="40"/>
+      <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="39" t="s">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="54">
+      <c r="B16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6">
         <v>1</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="54">
+      <c r="H16" s="2"/>
+      <c r="I16" s="6">
         <v>2</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="19">
+      <c r="J16" s="2"/>
+      <c r="K16" s="5">
         <v>3</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
+      <c r="A17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="36" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="34" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="31" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="28" t="s">
+      <c r="I18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="56"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="19" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="J19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="K19" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="L19" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
+      <c r="A26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="11">
-        <v>1251231</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="11"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="39" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="39" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="8"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="5"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="2"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A31:L37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+  <mergeCells count="79">
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="A15:B15"/>
@@ -1715,33 +1750,45 @@
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A31:L37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:H11"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/binder.xlsx
+++ b/src/common/templates/binder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7950F5-0937-4F2B-A0C4-2ABA1E468A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEBA35-07BF-40AB-90A9-9366C473B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="15600" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
+    <workbookView xWindow="1725" yWindow="480" windowWidth="25035" windowHeight="15495" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
   </bookViews>
   <sheets>
     <sheet name="바인더 작업일지" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,14 +575,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -593,39 +689,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,82 +725,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1071,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H11"/>
+      <selection activeCell="I10" sqref="I10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,17 +1080,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
       <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1105,678 +1102,617 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="20" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="53" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="54"/>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="52" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="54"/>
+      <c r="E10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="52" t="s">
+      <c r="F10" s="23"/>
+      <c r="G10" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="52" t="s">
+      <c r="J10" s="23"/>
+      <c r="K10" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="6">
+      <c r="F16" s="33"/>
+      <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>2</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>3</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="45"/>
+      <c r="E18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="55" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="56"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="5" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="18" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="18" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="18" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="10" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="10" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="11" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="42"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="37"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="40"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A22:B25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A31:L37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="I10:J11"/>
     <mergeCell ref="K10:L11"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A30:L30"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="E16:F16"/>
@@ -1788,7 +1724,68 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A31:L37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A22:B25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G10:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/common/templates/binder.xlsx
+++ b/src/common/templates/binder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\src\common\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEBA35-07BF-40AB-90A9-9366C473B49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F412D-0F13-4F0E-81B6-9509B27A4669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="480" windowWidth="25035" windowHeight="15495" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
+    <workbookView xWindow="3120" yWindow="1260" windowWidth="22770" windowHeight="14940" xr2:uid="{2C62E538-BA2C-49F5-AA6F-5AE1381476C8}"/>
   </bookViews>
   <sheets>
     <sheet name="바인더 작업일지" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,63 +581,126 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,24 +714,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,56 +725,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:J11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1080,17 +1101,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1102,246 +1123,246 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="23" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="8" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="10"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="23" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="54" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="23" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="54" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="33"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="5">
         <v>1</v>
       </c>
@@ -1356,56 +1377,56 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="44" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="48" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="42" t="s">
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="6" t="s">
+      <c r="J18" s="45"/>
+      <c r="K18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="43"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1420,17 +1441,17 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="15"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1438,15 +1459,15 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1454,7 +1475,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="15"/>
@@ -1462,9 +1483,9 @@
         <v>12</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1472,15 +1493,15 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1488,15 +1509,15 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1504,15 +1525,15 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="9" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1520,218 +1541,228 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="41"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="16" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="24"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="32" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="32" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="33"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="56"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="20"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="20"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="20"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="20"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="20"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="22"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A31:L37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -1748,44 +1779,34 @@
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="A9:L9"/>
     <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A31:L37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A22:B25"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
     <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A26:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
